--- a/Doc/prototype/ECS-ItmeMaster-JD-Prototype.xlsx
+++ b/Doc/prototype/ECS-ItmeMaster-JD-Prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="货品资料管理" sheetId="1" r:id="rId1"/>
@@ -848,7 +848,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="354">
   <si>
     <r>
       <rPr>
@@ -2100,10 +2100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认入库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3494,115 +3490,6 @@
       </rPr>
       <t>京东</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（直接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>API</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否确认所有已勾选的款号资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3963,10 +3850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品描述：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商品图片/描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3985,6 +3868,150 @@
       </rPr>
       <t>选择图片</t>
     </r>
+  </si>
+  <si>
+    <t>商品描述：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认建立已勾选的款号资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>正常：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PLU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，合拼款可给用户填</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>认开壳</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4717,7 +4744,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5494,6 +5521,18 @@
     <xf numFmtId="0" fontId="48" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5580,15 +5619,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12044,13 +12074,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>104774</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>137258</xdr:rowOff>
     </xdr:to>
@@ -12070,7 +12100,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8334374" y="10906125"/>
+          <a:off x="8286749" y="10906125"/>
           <a:ext cx="523875" cy="537308"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14443,8 +14473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:GA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -14486,7 +14516,7 @@
     <row r="2" spans="1:183" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -14698,14 +14728,14 @@
     <row r="4" spans="1:183" s="2" customFormat="1" ht="14.25">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="6"/>
       <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -14713,7 +14743,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="O4" s="162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
@@ -14749,23 +14779,23 @@
       <c r="B6" s="9"/>
       <c r="C6" s="21"/>
       <c r="D6" s="164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="13"/>
       <c r="G6" s="28"/>
       <c r="H6" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="29"/>
       <c r="K6" s="165"/>
       <c r="L6" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M6" s="24"/>
       <c r="O6" s="166" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="167"/>
@@ -14775,19 +14805,19 @@
       <c r="W6" s="13"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Z6" s="169"/>
-      <c r="AA6" s="264"/>
-      <c r="AB6" s="264"/>
-      <c r="AC6" s="264"/>
-      <c r="AD6" s="265"/>
+      <c r="AA6" s="268"/>
+      <c r="AB6" s="268"/>
+      <c r="AC6" s="268"/>
+      <c r="AD6" s="269"/>
     </row>
     <row r="7" spans="1:183" ht="14.25">
       <c r="B7" s="9"/>
       <c r="C7" s="20"/>
       <c r="D7" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>4</v>
@@ -14802,7 +14832,7 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="12"/>
@@ -14812,7 +14842,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="172" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
@@ -14824,7 +14854,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="13"/>
@@ -14836,29 +14866,29 @@
       <c r="L8" s="122"/>
       <c r="M8" s="31"/>
       <c r="O8" s="160" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P8" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="272" t="s">
-        <v>296</v>
-      </c>
-      <c r="R8" s="273"/>
-      <c r="S8" s="274"/>
+      <c r="Q8" s="276" t="s">
+        <v>295</v>
+      </c>
+      <c r="R8" s="277"/>
+      <c r="S8" s="278"/>
       <c r="V8" s="12"/>
       <c r="W8" s="13"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="173" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA8" s="270" t="s">
         <v>162</v>
       </c>
-      <c r="AA8" s="266" t="s">
+      <c r="AB8" s="270"/>
+      <c r="AC8" s="174" t="s">
         <v>163</v>
-      </c>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="174" t="s">
-        <v>164</v>
       </c>
       <c r="AD8" s="13"/>
     </row>
@@ -14868,16 +14898,16 @@
       <c r="F9" s="13"/>
       <c r="G9" s="28"/>
       <c r="H9" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="176"/>
       <c r="J9" s="177"/>
       <c r="K9" s="178"/>
       <c r="L9" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M9" s="179" t="s">
         <v>166</v>
-      </c>
-      <c r="M9" s="179" t="s">
-        <v>167</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="12"/>
@@ -14889,14 +14919,14 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="181" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA9" s="271" t="s">
         <v>169</v>
       </c>
-      <c r="AA9" s="267" t="s">
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="182" t="s">
         <v>170</v>
-      </c>
-      <c r="AB9" s="267"/>
-      <c r="AC9" s="182" t="s">
-        <v>171</v>
       </c>
       <c r="AD9" s="13"/>
     </row>
@@ -14908,18 +14938,18 @@
       <c r="F10" s="13"/>
       <c r="G10" s="28"/>
       <c r="H10" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I10" s="176" t="s">
         <v>172</v>
-      </c>
-      <c r="I10" s="176" t="s">
-        <v>173</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="183"/>
       <c r="L10" s="184" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>174</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>175</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="12"/>
@@ -14931,14 +14961,14 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="185" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA10" s="268" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA10" s="272" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB10" s="272"/>
+      <c r="AC10" s="186" t="s">
         <v>176</v>
-      </c>
-      <c r="AB10" s="268"/>
-      <c r="AC10" s="186" t="s">
-        <v>177</v>
       </c>
       <c r="AD10" s="13"/>
     </row>
@@ -14950,16 +14980,16 @@
       <c r="F11" s="35"/>
       <c r="G11" s="28"/>
       <c r="H11" s="187" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I11" s="176"/>
       <c r="J11" s="36"/>
       <c r="K11" s="178"/>
       <c r="L11" s="188" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="36"/>
@@ -15015,42 +15045,42 @@
         <v>6</v>
       </c>
       <c r="I13" s="160" t="s">
+        <v>179</v>
+      </c>
+      <c r="J13" s="266" t="s">
         <v>180</v>
       </c>
-      <c r="J13" s="262" t="s">
+      <c r="K13" s="267"/>
+      <c r="L13" s="245" t="s">
+        <v>296</v>
+      </c>
+      <c r="M13" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="263"/>
-      <c r="L13" s="245" t="s">
-        <v>297</v>
-      </c>
-      <c r="M13" s="101" t="s">
+      <c r="N13" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="N13" s="101" t="s">
+      <c r="O13" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="O13" s="101" t="s">
+      <c r="P13" s="160" t="s">
         <v>184</v>
       </c>
-      <c r="P13" s="160" t="s">
+      <c r="Q13" s="273" t="s">
         <v>185</v>
       </c>
-      <c r="Q13" s="269" t="s">
-        <v>186</v>
-      </c>
-      <c r="R13" s="270"/>
-      <c r="S13" s="271"/>
+      <c r="R13" s="274"/>
+      <c r="S13" s="275"/>
       <c r="W13" s="13"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC13" s="160" t="s">
         <v>187</v>
-      </c>
-      <c r="AC13" s="160" t="s">
-        <v>188</v>
       </c>
       <c r="AD13" s="13"/>
     </row>
@@ -15131,7 +15161,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="V16" s="190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -15326,10 +15356,10 @@
       <c r="B18" s="191"/>
       <c r="C18" s="4"/>
       <c r="D18" s="192" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="192" t="s">
         <v>190</v>
-      </c>
-      <c r="E18" s="192" t="s">
-        <v>191</v>
       </c>
       <c r="F18" s="193" t="s">
         <v>8</v>
@@ -15338,44 +15368,44 @@
         <v>9</v>
       </c>
       <c r="H18" s="193" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="192" t="s">
         <v>192</v>
-      </c>
-      <c r="I18" s="192" t="s">
-        <v>193</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="194" t="s">
+        <v>193</v>
+      </c>
+      <c r="M18" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="N18" s="195" t="s">
         <v>195</v>
       </c>
-      <c r="N18" s="195" t="s">
+      <c r="O18" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="O18" s="49" t="s">
+      <c r="P18" s="195" t="s">
         <v>197</v>
-      </c>
-      <c r="P18" s="195" t="s">
-        <v>198</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="192"/>
       <c r="S18" s="196" t="s">
+        <v>198</v>
+      </c>
+      <c r="T18" s="196" t="s">
         <v>199</v>
       </c>
-      <c r="T18" s="196" t="s">
+      <c r="U18" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="U18" s="160" t="s">
+      <c r="V18" s="160" t="s">
         <v>201</v>
       </c>
-      <c r="V18" s="160" t="s">
+      <c r="W18" s="160" t="s">
         <v>202</v>
-      </c>
-      <c r="W18" s="160" t="s">
-        <v>203</v>
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="1"/>
@@ -15542,90 +15572,90 @@
       <c r="B19" s="197"/>
       <c r="C19" s="198"/>
       <c r="D19" s="147" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="147">
         <v>213456789</v>
       </c>
       <c r="F19" s="199" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="199" t="s">
+      <c r="H19" s="199" t="s">
         <v>206</v>
       </c>
-      <c r="H19" s="199" t="s">
-        <v>207</v>
-      </c>
       <c r="I19" s="200" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J19" s="147"/>
       <c r="K19" s="201"/>
       <c r="L19" s="202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M19" s="151">
         <v>45</v>
       </c>
       <c r="N19" s="203" t="s">
+        <v>210</v>
+      </c>
+      <c r="O19" s="204" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" s="204" t="s">
         <v>211</v>
-      </c>
-      <c r="O19" s="204" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="204" t="s">
-        <v>212</v>
       </c>
       <c r="Q19" s="151"/>
       <c r="R19" s="204"/>
       <c r="S19" s="151"/>
       <c r="T19" s="151"/>
       <c r="U19" s="160" t="s">
+        <v>213</v>
+      </c>
+      <c r="V19" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="V19" s="160" t="s">
+      <c r="W19" s="160" t="s">
         <v>215</v>
-      </c>
-      <c r="W19" s="160" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:183">
       <c r="B20" s="205" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C20" s="206"/>
       <c r="D20" s="206" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="206" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="206" t="s">
+      <c r="G20" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="206" t="s">
+      <c r="H20" s="207" t="s">
         <v>220</v>
       </c>
-      <c r="H20" s="207" t="s">
+      <c r="I20" s="207" t="s">
         <v>221</v>
-      </c>
-      <c r="I20" s="207" t="s">
-        <v>222</v>
       </c>
       <c r="J20" s="206"/>
       <c r="K20" s="206"/>
       <c r="L20" s="207" t="s">
+        <v>222</v>
+      </c>
+      <c r="M20" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="M20" s="206" t="s">
+      <c r="N20" s="208" t="s">
         <v>224</v>
       </c>
-      <c r="N20" s="208" t="s">
+      <c r="O20" s="209" t="s">
         <v>225</v>
-      </c>
-      <c r="O20" s="209" t="s">
-        <v>226</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -15633,41 +15663,41 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B21" s="276" t="s">
+      <c r="B21" s="280" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="271" t="s">
         <v>227</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="267" t="s">
+      <c r="E21" s="271" t="s">
         <v>228</v>
       </c>
-      <c r="E21" s="267" t="s">
+      <c r="F21" s="271" t="s">
         <v>229</v>
       </c>
-      <c r="F21" s="267" t="s">
+      <c r="G21" s="271" t="s">
         <v>230</v>
       </c>
-      <c r="G21" s="267" t="s">
+      <c r="H21" s="285" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" s="285" t="s">
         <v>231</v>
-      </c>
-      <c r="H21" s="281" t="s">
-        <v>207</v>
-      </c>
-      <c r="I21" s="281" t="s">
-        <v>232</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="281" t="s">
+      <c r="L21" s="285" t="s">
+        <v>232</v>
+      </c>
+      <c r="M21" s="210" t="s">
         <v>233</v>
       </c>
-      <c r="M21" s="210" t="s">
+      <c r="N21" s="211" t="s">
         <v>234</v>
       </c>
-      <c r="N21" s="211" t="s">
+      <c r="O21" s="212" t="s">
         <v>235</v>
-      </c>
-      <c r="O21" s="212" t="s">
-        <v>236</v>
       </c>
       <c r="P21" s="12"/>
       <c r="T21" s="12"/>
@@ -15676,17 +15706,17 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B22" s="277"/>
+      <c r="B22" s="281"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="279"/>
-      <c r="E22" s="279"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="279"/>
-      <c r="H22" s="282"/>
-      <c r="I22" s="282"/>
+      <c r="D22" s="283"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="283"/>
+      <c r="H22" s="286"/>
+      <c r="I22" s="286"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="282"/>
+      <c r="L22" s="286"/>
       <c r="M22" s="210">
         <v>36</v>
       </c>
@@ -15694,7 +15724,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="213" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P22" s="12"/>
       <c r="T22" s="210"/>
@@ -15703,22 +15733,22 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B23" s="278"/>
+      <c r="B23" s="282"/>
       <c r="C23" s="214"/>
-      <c r="D23" s="280"/>
-      <c r="E23" s="280"/>
-      <c r="F23" s="280"/>
-      <c r="G23" s="280"/>
+      <c r="D23" s="284"/>
+      <c r="E23" s="284"/>
+      <c r="F23" s="284"/>
+      <c r="G23" s="284"/>
       <c r="H23" s="215" t="s">
+        <v>237</v>
+      </c>
+      <c r="I23" s="215" t="s">
         <v>238</v>
-      </c>
-      <c r="I23" s="215" t="s">
-        <v>239</v>
       </c>
       <c r="J23" s="214"/>
       <c r="K23" s="214"/>
       <c r="L23" s="215" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M23" s="216">
         <v>6</v>
@@ -15727,7 +15757,7 @@
         <v>4</v>
       </c>
       <c r="O23" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P23" s="36"/>
       <c r="T23" s="216"/>
@@ -15739,52 +15769,52 @@
       <c r="B24" s="59"/>
       <c r="C24" s="40"/>
       <c r="D24" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E24" s="39">
         <v>213549754</v>
       </c>
       <c r="F24" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="H24" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>244</v>
-      </c>
       <c r="I24" s="42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="219"/>
       <c r="L24" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M24" s="220">
         <v>45</v>
       </c>
       <c r="N24" s="221" t="s">
+        <v>244</v>
+      </c>
+      <c r="O24" s="222" t="s">
         <v>245</v>
       </c>
-      <c r="O24" s="222" t="s">
+      <c r="P24" s="222" t="s">
         <v>246</v>
-      </c>
-      <c r="P24" s="222" t="s">
-        <v>247</v>
       </c>
       <c r="Q24" s="220"/>
       <c r="R24" s="222"/>
       <c r="S24" s="43"/>
       <c r="T24" s="220"/>
       <c r="U24" s="160" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V24" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W24" s="160" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="12"/>
@@ -15793,7 +15823,7 @@
       <c r="B25" s="60"/>
       <c r="C25" s="45"/>
       <c r="D25" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E25" s="44">
         <v>213546875</v>
@@ -15802,114 +15832,114 @@
         <v>12</v>
       </c>
       <c r="G25" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="H25" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="H25" s="44" t="s">
-        <v>251</v>
-      </c>
       <c r="I25" s="223" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J25" s="44"/>
       <c r="K25" s="202"/>
       <c r="L25" s="202" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M25" s="224">
         <v>45</v>
       </c>
       <c r="N25" s="224" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O25" s="225" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P25" s="225" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="224"/>
       <c r="R25" s="225"/>
       <c r="S25" s="202"/>
       <c r="T25" s="224"/>
       <c r="U25" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="V25" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="V25" s="160" t="s">
+      <c r="W25" s="160" t="s">
         <v>254</v>
-      </c>
-      <c r="W25" s="160" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:183" ht="18.75" customHeight="1">
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="39" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E26" s="39">
         <v>215354955</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="H26" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="I26" s="42" t="s">
         <v>259</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>260</v>
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="219"/>
       <c r="L26" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M26" s="220">
         <v>45</v>
       </c>
       <c r="N26" s="221" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O26" s="222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P26" s="222" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="220"/>
       <c r="R26" s="222"/>
       <c r="S26" s="43"/>
       <c r="T26" s="220"/>
       <c r="U26" s="160" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V26" s="160" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W26" s="160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:183" ht="18.75" customHeight="1">
       <c r="B27" s="60"/>
       <c r="C27" s="45"/>
       <c r="D27" s="44" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E27" s="44">
         <v>213524867</v>
       </c>
       <c r="F27" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="H27" s="44" t="s">
         <v>266</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>267</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -15918,7 +15948,7 @@
       <c r="M27" s="44"/>
       <c r="N27" s="45"/>
       <c r="O27" s="225" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P27" s="225"/>
       <c r="Q27" s="224"/>
@@ -15926,32 +15956,32 @@
       <c r="S27" s="45"/>
       <c r="T27" s="224"/>
       <c r="U27" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="V27" s="160" t="s">
         <v>253</v>
       </c>
-      <c r="V27" s="160" t="s">
+      <c r="W27" s="160" t="s">
         <v>254</v>
-      </c>
-      <c r="W27" s="160" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:183" ht="19.5" customHeight="1">
       <c r="B28" s="59"/>
       <c r="C28" s="40"/>
       <c r="D28" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E28" s="39">
         <v>216548965</v>
       </c>
       <c r="F28" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="H28" s="41" t="s">
         <v>271</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>272</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="39"/>
@@ -15960,7 +15990,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="46"/>
       <c r="O28" s="222" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P28" s="222"/>
       <c r="Q28" s="220"/>
@@ -15968,23 +15998,23 @@
       <c r="S28" s="46"/>
       <c r="T28" s="220"/>
       <c r="U28" s="160" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="V28" s="160" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W28" s="160" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:183">
       <c r="B30" s="226" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="5:30" ht="14.25">
       <c r="Y33" s="227" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Z33" s="227"/>
       <c r="AA33" s="169"/>
@@ -15994,7 +16024,7 @@
     </row>
     <row r="34" spans="5:30" ht="14.25">
       <c r="F34" s="230" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G34" s="231"/>
       <c r="H34" s="231"/>
@@ -16003,7 +16033,7 @@
       <c r="K34" s="232"/>
       <c r="L34" s="233"/>
       <c r="N34" s="230" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O34" s="231"/>
       <c r="P34" s="231"/>
@@ -16013,10 +16043,10 @@
       <c r="T34" s="233"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="67" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA34" s="22" t="s">
         <v>276</v>
-      </c>
-      <c r="AA34" s="22" t="s">
-        <v>277</v>
       </c>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
@@ -16039,42 +16069,42 @@
       <c r="T35" s="13"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA35" s="22" t="s">
         <v>278</v>
-      </c>
-      <c r="AA35" s="22" t="s">
-        <v>279</v>
       </c>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="163"/>
     </row>
     <row r="36" spans="5:30" ht="14.25">
-      <c r="F36" s="283" t="s">
-        <v>323</v>
-      </c>
-      <c r="G36" s="284"/>
-      <c r="H36" s="284"/>
+      <c r="F36" s="287" t="s">
+        <v>349</v>
+      </c>
+      <c r="G36" s="288"/>
+      <c r="H36" s="288"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="13"/>
       <c r="N36" s="187" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O36" s="22"/>
       <c r="P36" s="235" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q36" s="285"/>
-      <c r="R36" s="286"/>
-      <c r="S36" s="287"/>
+        <v>280</v>
+      </c>
+      <c r="Q36" s="289"/>
+      <c r="R36" s="290"/>
+      <c r="S36" s="291"/>
       <c r="T36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA36" s="236" t="s">
         <v>282</v>
-      </c>
-      <c r="AA36" s="236" t="s">
-        <v>283</v>
       </c>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
@@ -16095,16 +16125,16 @@
       <c r="T37" s="13"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="237" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA37" s="238" t="s">
         <v>284</v>
       </c>
-      <c r="AA37" s="238" t="s">
+      <c r="AB37" s="239" t="s">
         <v>285</v>
       </c>
-      <c r="AB37" s="239" t="s">
+      <c r="AC37" s="240" t="s">
         <v>286</v>
-      </c>
-      <c r="AC37" s="240" t="s">
-        <v>287</v>
       </c>
       <c r="AD37" s="13"/>
     </row>
@@ -16116,28 +16146,28 @@
       <c r="K38" s="12"/>
       <c r="L38" s="13"/>
       <c r="N38" s="187" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="235" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q38" s="285"/>
-      <c r="R38" s="286"/>
-      <c r="S38" s="287"/>
+        <v>288</v>
+      </c>
+      <c r="Q38" s="289"/>
+      <c r="R38" s="290"/>
+      <c r="S38" s="291"/>
       <c r="T38" s="13"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="181" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA38" s="241">
         <v>123</v>
       </c>
       <c r="AB38" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC38" s="242" t="s">
         <v>291</v>
-      </c>
-      <c r="AC38" s="242" t="s">
-        <v>292</v>
       </c>
       <c r="AD38" s="13"/>
     </row>
@@ -16158,16 +16188,16 @@
       <c r="T39" s="13"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="185" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AA39" s="243">
         <v>456</v>
       </c>
       <c r="AB39" s="244" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC39" s="186" t="s">
         <v>291</v>
-      </c>
-      <c r="AC39" s="186" t="s">
-        <v>292</v>
       </c>
       <c r="AD39" s="13"/>
     </row>
@@ -16176,32 +16206,32 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="160" t="s">
-        <v>299</v>
-      </c>
-      <c r="J40" s="275" t="s">
-        <v>294</v>
-      </c>
-      <c r="K40" s="275"/>
+        <v>298</v>
+      </c>
+      <c r="J40" s="279" t="s">
+        <v>293</v>
+      </c>
+      <c r="K40" s="279"/>
       <c r="L40" s="13"/>
       <c r="N40" s="9"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="275" t="s">
+      <c r="P40" s="279" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q40" s="279"/>
+      <c r="R40" s="279" t="s">
         <v>293</v>
       </c>
-      <c r="Q40" s="275"/>
-      <c r="R40" s="275" t="s">
-        <v>294</v>
-      </c>
-      <c r="S40" s="275"/>
+      <c r="S40" s="279"/>
       <c r="T40" s="13"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="160" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AC40" s="160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AD40" s="13"/>
     </row>
@@ -16229,7 +16259,7 @@
     </row>
     <row r="42" spans="5:30">
       <c r="F42" s="246" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46" spans="5:30">
@@ -16270,8 +16300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16295,12 +16325,12 @@
       <c r="B2" s="116"/>
       <c r="C2" s="117"/>
       <c r="D2" s="144" t="s">
-        <v>320</v>
-      </c>
-      <c r="E2" s="288" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="292" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="289"/>
+      <c r="F2" s="293"/>
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="9" customHeight="1">
@@ -16368,17 +16398,17 @@
       <c r="B6" s="118"/>
       <c r="C6" s="9"/>
       <c r="D6" s="113" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="253" t="s">
-        <v>326</v>
-      </c>
-      <c r="H6" s="292" t="s">
-        <v>324</v>
+        <v>322</v>
+      </c>
+      <c r="H6" s="263" t="s">
+        <v>320</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -16395,17 +16425,19 @@
       <c r="B7" s="118"/>
       <c r="C7" s="9"/>
       <c r="D7" s="113" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12" t="s">
+        <v>352</v>
+      </c>
       <c r="G7" s="253" t="s">
-        <v>327</v>
-      </c>
-      <c r="H7" s="293" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="H7" s="264" t="s">
+        <v>321</v>
       </c>
       <c r="I7" s="241"/>
       <c r="J7" s="12"/>
@@ -16443,14 +16475,14 @@
       <c r="B9" s="118"/>
       <c r="C9" s="9"/>
       <c r="D9" s="113" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G9" s="258" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -16485,11 +16517,11 @@
       <c r="B11" s="118"/>
       <c r="C11" s="9"/>
       <c r="D11" s="113" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="12"/>
@@ -16529,7 +16561,7 @@
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="12"/>
@@ -16609,14 +16641,14 @@
       <c r="B18" s="118"/>
       <c r="C18" s="9"/>
       <c r="D18" s="113" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="28" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="62"/>
@@ -16633,7 +16665,7 @@
       <c r="B19" s="118"/>
       <c r="C19" s="9"/>
       <c r="D19" s="113" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>104</v>
@@ -16675,14 +16707,14 @@
       <c r="B21" s="118"/>
       <c r="C21" s="9"/>
       <c r="D21" s="113" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="28" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="25"/>
@@ -16700,7 +16732,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="145"/>
       <c r="E22" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F22" s="67"/>
       <c r="G22" s="28"/>
@@ -16737,13 +16769,13 @@
       <c r="B24" s="118"/>
       <c r="C24" s="9"/>
       <c r="D24" s="113" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -17091,7 +17123,7 @@
       <c r="B44" s="118"/>
       <c r="C44" s="9"/>
       <c r="D44" s="184" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="E44" s="260">
         <v>1123</v>
@@ -17135,14 +17167,14 @@
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G46" s="113" t="s">
         <v>118</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -17179,14 +17211,14 @@
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G48" s="113" t="s">
         <v>119</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -17228,7 +17260,7 @@
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -17270,7 +17302,7 @@
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
@@ -17320,7 +17352,7 @@
     <row r="55" spans="2:18" s="1" customFormat="1" ht="12.75">
       <c r="B55" s="118"/>
       <c r="C55" s="58" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D55" s="255"/>
       <c r="E55" s="256"/>
@@ -17359,7 +17391,7 @@
       <c r="B57" s="118"/>
       <c r="C57" s="9"/>
       <c r="D57" s="184" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -17415,12 +17447,12 @@
       <c r="B60" s="118"/>
       <c r="C60" s="9"/>
       <c r="D60" s="184" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>352</v>
-      </c>
-      <c r="F60" s="291"/>
+        <v>347</v>
+      </c>
+      <c r="F60" s="262"/>
       <c r="G60" s="177"/>
       <c r="H60" s="177"/>
       <c r="I60" s="100"/>
@@ -17505,7 +17537,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
@@ -17682,10 +17714,10 @@
       <c r="B75" s="118"/>
       <c r="C75" s="9"/>
       <c r="D75" s="113" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E75" s="145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="28"/>
@@ -17723,7 +17755,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="28"/>
       <c r="E77" s="145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="28"/>
@@ -17803,7 +17835,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="12"/>
       <c r="I81" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
@@ -17981,22 +18013,22 @@
         <v>130</v>
       </c>
       <c r="F91" s="72" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G91" s="72" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H91" s="261" t="s">
         <v>58</v>
       </c>
       <c r="I91" s="261" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J91" s="72" t="s">
         <v>131</v>
       </c>
       <c r="K91" s="259" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L91" s="72" t="s">
         <v>132</v>
@@ -18026,10 +18058,10 @@
         <v>1002709036002</v>
       </c>
       <c r="F92" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="G92" s="149" t="s">
         <v>337</v>
-      </c>
-      <c r="G92" s="149" t="s">
-        <v>341</v>
       </c>
       <c r="H92" s="149"/>
       <c r="I92" s="149"/>
@@ -18063,10 +18095,10 @@
         <v>1002709036003</v>
       </c>
       <c r="F93" s="78" t="s">
+        <v>334</v>
+      </c>
+      <c r="G93" s="79" t="s">
         <v>338</v>
-      </c>
-      <c r="G93" s="79" t="s">
-        <v>342</v>
       </c>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
@@ -18100,10 +18132,10 @@
         <v>1002709036004</v>
       </c>
       <c r="F94" s="83" t="s">
+        <v>335</v>
+      </c>
+      <c r="G94" s="74" t="s">
         <v>339</v>
-      </c>
-      <c r="G94" s="74" t="s">
-        <v>343</v>
       </c>
       <c r="H94" s="74"/>
       <c r="I94" s="74"/>
@@ -18137,10 +18169,10 @@
         <v>1002709036005</v>
       </c>
       <c r="F95" s="85" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G95" s="86" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H95" s="86"/>
       <c r="I95" s="86"/>
@@ -18166,10 +18198,10 @@
     </row>
     <row r="96" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B96" s="118"/>
-      <c r="C96" s="275" t="s">
+      <c r="C96" s="279" t="s">
         <v>141</v>
       </c>
-      <c r="D96" s="290"/>
+      <c r="D96" s="294"/>
       <c r="E96" s="83"/>
       <c r="F96" s="74"/>
       <c r="G96" s="74"/>
@@ -18188,13 +18220,13 @@
     <row r="97" spans="2:19" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B97" s="118"/>
       <c r="N97" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="O97" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="O97" s="265" t="s">
+        <v>353</v>
+      </c>
+      <c r="P97" s="32" t="s">
         <v>142</v>
-      </c>
-      <c r="P97" s="32" t="s">
-        <v>143</v>
       </c>
       <c r="S97" s="119"/>
     </row>
@@ -18264,7 +18296,7 @@
     <row r="106" spans="2:19" s="1" customFormat="1" ht="12.75">
       <c r="D106" s="122"/>
       <c r="G106" s="249" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H106" s="247"/>
       <c r="I106" s="247"/>
@@ -18282,7 +18314,7 @@
     <row r="108" spans="2:19" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="D108" s="122"/>
       <c r="G108" s="250" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H108" s="99"/>
       <c r="I108" s="22"/>
@@ -18300,7 +18332,7 @@
     <row r="110" spans="2:19" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="D110" s="122"/>
       <c r="G110" s="250" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H110" s="99"/>
       <c r="I110" s="22"/>
@@ -18318,7 +18350,7 @@
     <row r="112" spans="2:19" s="1" customFormat="1" ht="55.5" customHeight="1">
       <c r="D112" s="122"/>
       <c r="G112" s="250" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H112" s="99"/>
       <c r="I112" s="22"/>
@@ -18336,7 +18368,7 @@
     <row r="114" spans="4:11" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="D114" s="122"/>
       <c r="G114" s="250" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H114" s="99"/>
       <c r="I114" s="22"/>
@@ -18354,10 +18386,10 @@
     <row r="116" spans="4:11" s="1" customFormat="1" ht="65.25" customHeight="1">
       <c r="D116" s="122"/>
       <c r="G116" s="250" t="s">
+        <v>303</v>
+      </c>
+      <c r="H116" s="251" t="s">
         <v>304</v>
-      </c>
-      <c r="H116" s="251" t="s">
-        <v>305</v>
       </c>
       <c r="I116" s="22"/>
       <c r="J116" s="12"/>
@@ -18376,10 +18408,10 @@
       <c r="G118" s="250"/>
       <c r="H118" s="252"/>
       <c r="I118" s="161" t="s">
+        <v>305</v>
+      </c>
+      <c r="J118" s="101" t="s">
         <v>306</v>
-      </c>
-      <c r="J118" s="101" t="s">
-        <v>307</v>
       </c>
       <c r="K118" s="13"/>
     </row>

--- a/Doc/prototype/ECS-ItmeMaster-JD-Prototype.xlsx
+++ b/Doc/prototype/ECS-ItmeMaster-JD-Prototype.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="货品资料管理" sheetId="1" r:id="rId1"/>
@@ -620,20 +620,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>非必填</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D92" authorId="0">
       <text>
         <r>
@@ -848,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="353">
   <si>
     <r>
       <rPr>
@@ -1894,10 +1880,6 @@
   </si>
   <si>
     <t>折扣：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本价：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5533,6 +5515,48 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5548,9 +5572,6 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5570,45 +5591,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6567,7 +6549,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6587,7 +6569,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6622,7 +6604,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6642,7 +6624,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6677,7 +6659,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6697,7 +6679,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6732,7 +6714,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6752,7 +6734,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6787,7 +6769,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6807,7 +6789,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6842,7 +6824,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6862,7 +6844,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6897,7 +6879,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6917,7 +6899,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6952,7 +6934,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6972,7 +6954,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7007,7 +6989,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7027,7 +7009,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7114,7 +7096,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7134,7 +7116,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7169,7 +7151,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7189,7 +7171,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7224,7 +7206,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7244,7 +7226,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7635,7 +7617,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7655,7 +7637,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7766,7 +7748,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7786,7 +7768,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7859,7 +7841,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7879,7 +7861,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7914,7 +7896,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7934,7 +7916,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8367,7 +8349,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8387,7 +8369,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8498,7 +8480,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8518,7 +8500,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8667,7 +8649,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8687,7 +8669,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10699,7 +10681,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10719,7 +10701,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10754,7 +10736,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10774,7 +10756,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10809,7 +10791,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10829,7 +10811,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10864,7 +10846,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10884,7 +10866,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10919,7 +10901,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10939,7 +10921,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11345,7 +11327,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11365,7 +11347,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11637,7 +11619,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11657,7 +11639,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11692,7 +11674,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11712,7 +11694,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11747,7 +11729,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11767,7 +11749,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11802,7 +11784,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11822,7 +11804,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11986,7 +11968,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -12142,7 +12124,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12162,7 +12144,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14473,8 +14455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:GA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -14516,7 +14498,7 @@
     <row r="2" spans="1:183" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -14728,14 +14710,14 @@
     <row r="4" spans="1:183" s="2" customFormat="1" ht="14.25">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="6"/>
       <c r="G4" s="28"/>
       <c r="H4" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -14743,7 +14725,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="6"/>
       <c r="O4" s="162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P4" s="16"/>
       <c r="Q4" s="16"/>
@@ -14779,23 +14761,23 @@
       <c r="B6" s="9"/>
       <c r="C6" s="21"/>
       <c r="D6" s="164" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="13"/>
       <c r="G6" s="28"/>
       <c r="H6" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="29"/>
       <c r="K6" s="165"/>
       <c r="L6" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="24"/>
       <c r="O6" s="166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="167"/>
@@ -14805,19 +14787,19 @@
       <c r="W6" s="13"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="168" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z6" s="169"/>
-      <c r="AA6" s="268"/>
-      <c r="AB6" s="268"/>
-      <c r="AC6" s="268"/>
-      <c r="AD6" s="269"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
+      <c r="AC6" s="282"/>
+      <c r="AD6" s="283"/>
     </row>
     <row r="7" spans="1:183" ht="14.25">
       <c r="B7" s="9"/>
       <c r="C7" s="20"/>
       <c r="D7" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>4</v>
@@ -14832,7 +14814,7 @@
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="171" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="12"/>
@@ -14842,7 +14824,7 @@
       <c r="W7" s="13"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z7" s="29"/>
       <c r="AA7" s="29"/>
@@ -14854,7 +14836,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="13"/>
@@ -14866,29 +14848,29 @@
       <c r="L8" s="122"/>
       <c r="M8" s="31"/>
       <c r="O8" s="160" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P8" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="276" t="s">
-        <v>295</v>
-      </c>
-      <c r="R8" s="277"/>
-      <c r="S8" s="278"/>
+      <c r="Q8" s="289" t="s">
+        <v>294</v>
+      </c>
+      <c r="R8" s="290"/>
+      <c r="S8" s="291"/>
       <c r="V8" s="12"/>
       <c r="W8" s="13"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="173" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA8" s="284" t="s">
         <v>161</v>
       </c>
-      <c r="AA8" s="270" t="s">
+      <c r="AB8" s="284"/>
+      <c r="AC8" s="174" t="s">
         <v>162</v>
-      </c>
-      <c r="AB8" s="270"/>
-      <c r="AC8" s="174" t="s">
-        <v>163</v>
       </c>
       <c r="AD8" s="13"/>
     </row>
@@ -14898,16 +14880,16 @@
       <c r="F9" s="13"/>
       <c r="G9" s="28"/>
       <c r="H9" s="175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="176"/>
       <c r="J9" s="177"/>
       <c r="K9" s="178"/>
       <c r="L9" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M9" s="179" t="s">
         <v>165</v>
-      </c>
-      <c r="M9" s="179" t="s">
-        <v>166</v>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="12"/>
@@ -14919,14 +14901,14 @@
       <c r="X9" s="12"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="181" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA9" s="270" t="s">
         <v>168</v>
       </c>
-      <c r="AA9" s="271" t="s">
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="182" t="s">
         <v>169</v>
-      </c>
-      <c r="AB9" s="271"/>
-      <c r="AC9" s="182" t="s">
-        <v>170</v>
       </c>
       <c r="AD9" s="13"/>
     </row>
@@ -14938,18 +14920,18 @@
       <c r="F10" s="13"/>
       <c r="G10" s="28"/>
       <c r="H10" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I10" s="176" t="s">
         <v>171</v>
-      </c>
-      <c r="I10" s="176" t="s">
-        <v>172</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="183"/>
       <c r="L10" s="184" t="s">
+        <v>172</v>
+      </c>
+      <c r="M10" s="22" t="s">
         <v>173</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>174</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="12"/>
@@ -14961,14 +14943,14 @@
       <c r="X10" s="12"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="185" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA10" s="272" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA10" s="285" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB10" s="285"/>
+      <c r="AC10" s="186" t="s">
         <v>175</v>
-      </c>
-      <c r="AB10" s="272"/>
-      <c r="AC10" s="186" t="s">
-        <v>176</v>
       </c>
       <c r="AD10" s="13"/>
     </row>
@@ -14980,16 +14962,16 @@
       <c r="F11" s="35"/>
       <c r="G11" s="28"/>
       <c r="H11" s="187" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" s="176"/>
       <c r="J11" s="36"/>
       <c r="K11" s="178"/>
       <c r="L11" s="188" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="36"/>
@@ -15045,42 +15027,42 @@
         <v>6</v>
       </c>
       <c r="I13" s="160" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="280" t="s">
         <v>179</v>
       </c>
-      <c r="J13" s="266" t="s">
+      <c r="K13" s="281"/>
+      <c r="L13" s="245" t="s">
+        <v>295</v>
+      </c>
+      <c r="M13" s="101" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="267"/>
-      <c r="L13" s="245" t="s">
-        <v>296</v>
-      </c>
-      <c r="M13" s="101" t="s">
+      <c r="N13" s="101" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="101" t="s">
+      <c r="O13" s="101" t="s">
         <v>182</v>
       </c>
-      <c r="O13" s="101" t="s">
+      <c r="P13" s="160" t="s">
         <v>183</v>
       </c>
-      <c r="P13" s="160" t="s">
+      <c r="Q13" s="286" t="s">
         <v>184</v>
       </c>
-      <c r="Q13" s="273" t="s">
-        <v>185</v>
-      </c>
-      <c r="R13" s="274"/>
-      <c r="S13" s="275"/>
+      <c r="R13" s="287"/>
+      <c r="S13" s="288"/>
       <c r="W13" s="13"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
       <c r="AB13" s="160" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC13" s="160" t="s">
         <v>186</v>
-      </c>
-      <c r="AC13" s="160" t="s">
-        <v>187</v>
       </c>
       <c r="AD13" s="13"/>
     </row>
@@ -15161,7 +15143,7 @@
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="V16" s="190" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
@@ -15356,10 +15338,10 @@
       <c r="B18" s="191"/>
       <c r="C18" s="4"/>
       <c r="D18" s="192" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="192" t="s">
         <v>189</v>
-      </c>
-      <c r="E18" s="192" t="s">
-        <v>190</v>
       </c>
       <c r="F18" s="193" t="s">
         <v>8</v>
@@ -15368,44 +15350,44 @@
         <v>9</v>
       </c>
       <c r="H18" s="193" t="s">
+        <v>190</v>
+      </c>
+      <c r="I18" s="192" t="s">
         <v>191</v>
-      </c>
-      <c r="I18" s="192" t="s">
-        <v>192</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="M18" s="49" t="s">
+      <c r="N18" s="195" t="s">
         <v>194</v>
       </c>
-      <c r="N18" s="195" t="s">
+      <c r="O18" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="O18" s="49" t="s">
+      <c r="P18" s="195" t="s">
         <v>196</v>
-      </c>
-      <c r="P18" s="195" t="s">
-        <v>197</v>
       </c>
       <c r="Q18" s="5"/>
       <c r="R18" s="192"/>
       <c r="S18" s="196" t="s">
+        <v>197</v>
+      </c>
+      <c r="T18" s="196" t="s">
         <v>198</v>
       </c>
-      <c r="T18" s="196" t="s">
+      <c r="U18" s="160" t="s">
         <v>199</v>
       </c>
-      <c r="U18" s="160" t="s">
+      <c r="V18" s="160" t="s">
         <v>200</v>
       </c>
-      <c r="V18" s="160" t="s">
+      <c r="W18" s="160" t="s">
         <v>201</v>
-      </c>
-      <c r="W18" s="160" t="s">
-        <v>202</v>
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="1"/>
@@ -15572,90 +15554,90 @@
       <c r="B19" s="197"/>
       <c r="C19" s="198"/>
       <c r="D19" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E19" s="147">
         <v>213456789</v>
       </c>
       <c r="F19" s="199" t="s">
+        <v>203</v>
+      </c>
+      <c r="G19" s="199" t="s">
         <v>204</v>
       </c>
-      <c r="G19" s="199" t="s">
+      <c r="H19" s="199" t="s">
         <v>205</v>
       </c>
-      <c r="H19" s="199" t="s">
-        <v>206</v>
-      </c>
       <c r="I19" s="200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J19" s="147"/>
       <c r="K19" s="201"/>
       <c r="L19" s="202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M19" s="151">
         <v>45</v>
       </c>
       <c r="N19" s="203" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" s="204" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" s="204" t="s">
         <v>210</v>
-      </c>
-      <c r="O19" s="204" t="s">
-        <v>212</v>
-      </c>
-      <c r="P19" s="204" t="s">
-        <v>211</v>
       </c>
       <c r="Q19" s="151"/>
       <c r="R19" s="204"/>
       <c r="S19" s="151"/>
       <c r="T19" s="151"/>
       <c r="U19" s="160" t="s">
+        <v>212</v>
+      </c>
+      <c r="V19" s="160" t="s">
         <v>213</v>
       </c>
-      <c r="V19" s="160" t="s">
+      <c r="W19" s="160" t="s">
         <v>214</v>
-      </c>
-      <c r="W19" s="160" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:183">
       <c r="B20" s="205" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="206"/>
       <c r="D20" s="206" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="206" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="206" t="s">
         <v>217</v>
       </c>
-      <c r="F20" s="206" t="s">
+      <c r="G20" s="206" t="s">
         <v>218</v>
       </c>
-      <c r="G20" s="206" t="s">
+      <c r="H20" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="H20" s="207" t="s">
+      <c r="I20" s="207" t="s">
         <v>220</v>
-      </c>
-      <c r="I20" s="207" t="s">
-        <v>221</v>
       </c>
       <c r="J20" s="206"/>
       <c r="K20" s="206"/>
       <c r="L20" s="207" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="206" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="206" t="s">
+      <c r="N20" s="208" t="s">
         <v>223</v>
       </c>
-      <c r="N20" s="208" t="s">
+      <c r="O20" s="209" t="s">
         <v>224</v>
-      </c>
-      <c r="O20" s="209" t="s">
-        <v>225</v>
       </c>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -15663,41 +15645,41 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B21" s="280" t="s">
+      <c r="B21" s="267" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="270" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="271" t="s">
+      <c r="E21" s="270" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="271" t="s">
+      <c r="F21" s="270" t="s">
         <v>228</v>
       </c>
-      <c r="F21" s="271" t="s">
+      <c r="G21" s="270" t="s">
         <v>229</v>
       </c>
-      <c r="G21" s="271" t="s">
+      <c r="H21" s="273" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="273" t="s">
         <v>230</v>
-      </c>
-      <c r="H21" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="285" t="s">
-        <v>231</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="285" t="s">
+      <c r="L21" s="273" t="s">
+        <v>231</v>
+      </c>
+      <c r="M21" s="210" t="s">
         <v>232</v>
       </c>
-      <c r="M21" s="210" t="s">
+      <c r="N21" s="211" t="s">
         <v>233</v>
       </c>
-      <c r="N21" s="211" t="s">
+      <c r="O21" s="212" t="s">
         <v>234</v>
-      </c>
-      <c r="O21" s="212" t="s">
-        <v>235</v>
       </c>
       <c r="P21" s="12"/>
       <c r="T21" s="12"/>
@@ -15706,17 +15688,17 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B22" s="281"/>
+      <c r="B22" s="268"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="283"/>
-      <c r="E22" s="283"/>
-      <c r="F22" s="283"/>
-      <c r="G22" s="283"/>
-      <c r="H22" s="286"/>
-      <c r="I22" s="286"/>
+      <c r="D22" s="271"/>
+      <c r="E22" s="271"/>
+      <c r="F22" s="271"/>
+      <c r="G22" s="271"/>
+      <c r="H22" s="274"/>
+      <c r="I22" s="274"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="286"/>
+      <c r="L22" s="274"/>
       <c r="M22" s="210">
         <v>36</v>
       </c>
@@ -15724,7 +15706,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="213" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P22" s="12"/>
       <c r="T22" s="210"/>
@@ -15733,22 +15715,22 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B23" s="282"/>
+      <c r="B23" s="269"/>
       <c r="C23" s="214"/>
-      <c r="D23" s="284"/>
-      <c r="E23" s="284"/>
-      <c r="F23" s="284"/>
-      <c r="G23" s="284"/>
+      <c r="D23" s="272"/>
+      <c r="E23" s="272"/>
+      <c r="F23" s="272"/>
+      <c r="G23" s="272"/>
       <c r="H23" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="215" t="s">
         <v>237</v>
-      </c>
-      <c r="I23" s="215" t="s">
-        <v>238</v>
       </c>
       <c r="J23" s="214"/>
       <c r="K23" s="214"/>
       <c r="L23" s="215" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M23" s="216">
         <v>6</v>
@@ -15757,7 +15739,7 @@
         <v>4</v>
       </c>
       <c r="O23" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P23" s="36"/>
       <c r="T23" s="216"/>
@@ -15769,52 +15751,52 @@
       <c r="B24" s="59"/>
       <c r="C24" s="40"/>
       <c r="D24" s="39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E24" s="39">
         <v>213549754</v>
       </c>
       <c r="F24" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="H24" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>243</v>
-      </c>
       <c r="I24" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="219"/>
       <c r="L24" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M24" s="220">
         <v>45</v>
       </c>
       <c r="N24" s="221" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" s="222" t="s">
         <v>244</v>
       </c>
-      <c r="O24" s="222" t="s">
+      <c r="P24" s="222" t="s">
         <v>245</v>
-      </c>
-      <c r="P24" s="222" t="s">
-        <v>246</v>
       </c>
       <c r="Q24" s="220"/>
       <c r="R24" s="222"/>
       <c r="S24" s="43"/>
       <c r="T24" s="220"/>
       <c r="U24" s="160" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V24" s="160" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W24" s="160" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="12"/>
@@ -15823,7 +15805,7 @@
       <c r="B25" s="60"/>
       <c r="C25" s="45"/>
       <c r="D25" s="44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E25" s="44">
         <v>213546875</v>
@@ -15832,114 +15814,114 @@
         <v>12</v>
       </c>
       <c r="G25" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="H25" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="H25" s="44" t="s">
-        <v>250</v>
-      </c>
       <c r="I25" s="223" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J25" s="44"/>
       <c r="K25" s="202"/>
       <c r="L25" s="202" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M25" s="224">
         <v>45</v>
       </c>
       <c r="N25" s="224" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O25" s="225" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P25" s="225" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="224"/>
       <c r="R25" s="225"/>
       <c r="S25" s="202"/>
       <c r="T25" s="224"/>
       <c r="U25" s="160" t="s">
+        <v>251</v>
+      </c>
+      <c r="V25" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="V25" s="160" t="s">
+      <c r="W25" s="160" t="s">
         <v>253</v>
-      </c>
-      <c r="W25" s="160" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:183" ht="18.75" customHeight="1">
       <c r="B26" s="59"/>
       <c r="C26" s="40"/>
       <c r="D26" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E26" s="39">
         <v>215354955</v>
       </c>
       <c r="F26" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="H26" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="I26" s="42" t="s">
         <v>258</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>259</v>
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="219"/>
       <c r="L26" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M26" s="220">
         <v>45</v>
       </c>
       <c r="N26" s="221" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O26" s="222" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P26" s="222" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q26" s="220"/>
       <c r="R26" s="222"/>
       <c r="S26" s="43"/>
       <c r="T26" s="220"/>
       <c r="U26" s="160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V26" s="160" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W26" s="160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:183" ht="18.75" customHeight="1">
       <c r="B27" s="60"/>
       <c r="C27" s="45"/>
       <c r="D27" s="44" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E27" s="44">
         <v>213524867</v>
       </c>
       <c r="F27" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="G27" s="45" t="s">
         <v>264</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="H27" s="44" t="s">
         <v>265</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>266</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -15948,7 +15930,7 @@
       <c r="M27" s="44"/>
       <c r="N27" s="45"/>
       <c r="O27" s="225" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P27" s="225"/>
       <c r="Q27" s="224"/>
@@ -15956,32 +15938,32 @@
       <c r="S27" s="45"/>
       <c r="T27" s="224"/>
       <c r="U27" s="160" t="s">
+        <v>251</v>
+      </c>
+      <c r="V27" s="160" t="s">
         <v>252</v>
       </c>
-      <c r="V27" s="160" t="s">
+      <c r="W27" s="160" t="s">
         <v>253</v>
-      </c>
-      <c r="W27" s="160" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:183" ht="19.5" customHeight="1">
       <c r="B28" s="59"/>
       <c r="C28" s="40"/>
       <c r="D28" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" s="39">
         <v>216548965</v>
       </c>
       <c r="F28" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="G28" s="40" t="s">
+      <c r="H28" s="41" t="s">
         <v>270</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>271</v>
       </c>
       <c r="I28" s="41"/>
       <c r="J28" s="39"/>
@@ -15990,7 +15972,7 @@
       <c r="M28" s="41"/>
       <c r="N28" s="46"/>
       <c r="O28" s="222" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P28" s="222"/>
       <c r="Q28" s="220"/>
@@ -15998,23 +15980,23 @@
       <c r="S28" s="46"/>
       <c r="T28" s="220"/>
       <c r="U28" s="160" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="V28" s="160" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="W28" s="160" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30" spans="1:183">
       <c r="B30" s="226" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="5:30" ht="14.25">
       <c r="Y33" s="227" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z33" s="227"/>
       <c r="AA33" s="169"/>
@@ -16024,7 +16006,7 @@
     </row>
     <row r="34" spans="5:30" ht="14.25">
       <c r="F34" s="230" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G34" s="231"/>
       <c r="H34" s="231"/>
@@ -16033,7 +16015,7 @@
       <c r="K34" s="232"/>
       <c r="L34" s="233"/>
       <c r="N34" s="230" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O34" s="231"/>
       <c r="P34" s="231"/>
@@ -16043,10 +16025,10 @@
       <c r="T34" s="233"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA34" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="AA34" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="AB34" s="12"/>
       <c r="AC34" s="12"/>
@@ -16069,42 +16051,42 @@
       <c r="T35" s="13"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA35" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="AA35" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AD35" s="163"/>
     </row>
     <row r="36" spans="5:30" ht="14.25">
-      <c r="F36" s="287" t="s">
-        <v>349</v>
-      </c>
-      <c r="G36" s="288"/>
-      <c r="H36" s="288"/>
+      <c r="F36" s="275" t="s">
+        <v>348</v>
+      </c>
+      <c r="G36" s="276"/>
+      <c r="H36" s="276"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="13"/>
       <c r="N36" s="187" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O36" s="22"/>
       <c r="P36" s="235" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q36" s="289"/>
-      <c r="R36" s="290"/>
-      <c r="S36" s="291"/>
+        <v>279</v>
+      </c>
+      <c r="Q36" s="277"/>
+      <c r="R36" s="278"/>
+      <c r="S36" s="279"/>
       <c r="T36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="12"/>
       <c r="Z36" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA36" s="236" t="s">
         <v>281</v>
-      </c>
-      <c r="AA36" s="236" t="s">
-        <v>282</v>
       </c>
       <c r="AB36" s="12"/>
       <c r="AC36" s="12"/>
@@ -16125,16 +16107,16 @@
       <c r="T37" s="13"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="237" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA37" s="238" t="s">
         <v>283</v>
       </c>
-      <c r="AA37" s="238" t="s">
+      <c r="AB37" s="239" t="s">
         <v>284</v>
       </c>
-      <c r="AB37" s="239" t="s">
+      <c r="AC37" s="240" t="s">
         <v>285</v>
-      </c>
-      <c r="AC37" s="240" t="s">
-        <v>286</v>
       </c>
       <c r="AD37" s="13"/>
     </row>
@@ -16146,28 +16128,28 @@
       <c r="K38" s="12"/>
       <c r="L38" s="13"/>
       <c r="N38" s="187" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O38" s="22"/>
       <c r="P38" s="235" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q38" s="289"/>
-      <c r="R38" s="290"/>
-      <c r="S38" s="291"/>
+        <v>287</v>
+      </c>
+      <c r="Q38" s="277"/>
+      <c r="R38" s="278"/>
+      <c r="S38" s="279"/>
       <c r="T38" s="13"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="181" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA38" s="241">
         <v>123</v>
       </c>
       <c r="AB38" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC38" s="242" t="s">
         <v>290</v>
-      </c>
-      <c r="AC38" s="242" t="s">
-        <v>291</v>
       </c>
       <c r="AD38" s="13"/>
     </row>
@@ -16188,16 +16170,16 @@
       <c r="T39" s="13"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="185" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AA39" s="243">
         <v>456</v>
       </c>
       <c r="AB39" s="244" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC39" s="186" t="s">
         <v>290</v>
-      </c>
-      <c r="AC39" s="186" t="s">
-        <v>291</v>
       </c>
       <c r="AD39" s="13"/>
     </row>
@@ -16206,32 +16188,32 @@
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
       <c r="I40" s="160" t="s">
-        <v>298</v>
-      </c>
-      <c r="J40" s="279" t="s">
-        <v>293</v>
-      </c>
-      <c r="K40" s="279"/>
+        <v>297</v>
+      </c>
+      <c r="J40" s="266" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" s="266"/>
       <c r="L40" s="13"/>
       <c r="N40" s="9"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="279" t="s">
+      <c r="P40" s="266" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266" t="s">
         <v>292</v>
       </c>
-      <c r="Q40" s="279"/>
-      <c r="R40" s="279" t="s">
-        <v>293</v>
-      </c>
-      <c r="S40" s="279"/>
+      <c r="S40" s="266"/>
       <c r="T40" s="13"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="12"/>
       <c r="AA40" s="12"/>
       <c r="AB40" s="160" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC40" s="160" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AD40" s="13"/>
     </row>
@@ -16259,7 +16241,7 @@
     </row>
     <row r="42" spans="5:30">
       <c r="F42" s="246" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="5:30">
@@ -16267,6 +16249,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="J40:K40"/>
@@ -16281,13 +16270,6 @@
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q8:S8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16300,8 +16282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16313,7 +16295,7 @@
     <col min="5" max="5" width="22.125" customWidth="1"/>
     <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" style="124" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16325,7 +16307,7 @@
       <c r="B2" s="116"/>
       <c r="C2" s="117"/>
       <c r="D2" s="144" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="292" t="s">
         <v>105</v>
@@ -16398,17 +16380,17 @@
       <c r="B6" s="118"/>
       <c r="C6" s="9"/>
       <c r="D6" s="113" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="253" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H6" s="263" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -16425,19 +16407,19 @@
       <c r="B7" s="118"/>
       <c r="C7" s="9"/>
       <c r="D7" s="113" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G7" s="253" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H7" s="264" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I7" s="241"/>
       <c r="J7" s="12"/>
@@ -16475,14 +16457,14 @@
       <c r="B9" s="118"/>
       <c r="C9" s="9"/>
       <c r="D9" s="113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G9" s="258" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -16517,11 +16499,11 @@
       <c r="B11" s="118"/>
       <c r="C11" s="9"/>
       <c r="D11" s="113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="12"/>
@@ -16561,7 +16543,7 @@
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="12"/>
@@ -16641,14 +16623,14 @@
       <c r="B18" s="118"/>
       <c r="C18" s="9"/>
       <c r="D18" s="113" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="62"/>
@@ -16665,7 +16647,7 @@
       <c r="B19" s="118"/>
       <c r="C19" s="9"/>
       <c r="D19" s="113" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>104</v>
@@ -16707,14 +16689,14 @@
       <c r="B21" s="118"/>
       <c r="C21" s="9"/>
       <c r="D21" s="113" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="25"/>
@@ -16732,7 +16714,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="145"/>
       <c r="E22" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F22" s="67"/>
       <c r="G22" s="28"/>
@@ -16769,13 +16751,13 @@
       <c r="B24" s="118"/>
       <c r="C24" s="9"/>
       <c r="D24" s="113" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -17123,7 +17105,7 @@
       <c r="B44" s="118"/>
       <c r="C44" s="9"/>
       <c r="D44" s="184" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E44" s="260">
         <v>1123</v>
@@ -17167,14 +17149,14 @@
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G46" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -17211,14 +17193,14 @@
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G48" s="113" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -17256,11 +17238,11 @@
       <c r="E50" s="22"/>
       <c r="F50" s="12"/>
       <c r="G50" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -17292,17 +17274,15 @@
     <row r="52" spans="2:18" s="1" customFormat="1" ht="12.75">
       <c r="B52" s="118"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52" s="22"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
       <c r="F52" s="12"/>
       <c r="G52" s="113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
@@ -17352,7 +17332,7 @@
     <row r="55" spans="2:18" s="1" customFormat="1" ht="12.75">
       <c r="B55" s="118"/>
       <c r="C55" s="58" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D55" s="255"/>
       <c r="E55" s="256"/>
@@ -17391,7 +17371,7 @@
       <c r="B57" s="118"/>
       <c r="C57" s="9"/>
       <c r="D57" s="184" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -17447,10 +17427,10 @@
       <c r="B60" s="118"/>
       <c r="C60" s="9"/>
       <c r="D60" s="184" t="s">
+        <v>345</v>
+      </c>
+      <c r="E60" s="99" t="s">
         <v>346</v>
-      </c>
-      <c r="E60" s="99" t="s">
-        <v>347</v>
       </c>
       <c r="F60" s="262"/>
       <c r="G60" s="177"/>
@@ -17491,7 +17471,7 @@
     <row r="63" spans="2:18" s="1" customFormat="1" ht="12.75">
       <c r="B63" s="118"/>
       <c r="C63" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D63" s="123"/>
       <c r="E63" s="61"/>
@@ -17530,14 +17510,14 @@
       <c r="B65" s="118"/>
       <c r="C65" s="9"/>
       <c r="D65" s="113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
       <c r="G65" s="28"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
@@ -17714,10 +17694,10 @@
       <c r="B75" s="118"/>
       <c r="C75" s="9"/>
       <c r="D75" s="113" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E75" s="145" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F75" s="12"/>
       <c r="G75" s="28"/>
@@ -17755,7 +17735,7 @@
       <c r="C77" s="9"/>
       <c r="D77" s="28"/>
       <c r="E77" s="145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F77" s="12"/>
       <c r="G77" s="28"/>
@@ -17828,14 +17808,14 @@
       <c r="B81" s="118"/>
       <c r="C81" s="9"/>
       <c r="D81" s="113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
       <c r="G81" s="28"/>
       <c r="H81" s="12"/>
       <c r="I81" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
@@ -17965,13 +17945,13 @@
       <c r="B89" s="118"/>
       <c r="C89" s="64"/>
       <c r="D89" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" s="126" t="s">
         <v>125</v>
       </c>
-      <c r="E89" s="126" t="s">
+      <c r="F89" s="126" t="s">
         <v>126</v>
-      </c>
-      <c r="F89" s="126" t="s">
-        <v>127</v>
       </c>
       <c r="R89" s="127"/>
       <c r="S89" s="12"/>
@@ -17995,10 +17975,10 @@
       <c r="N90" s="70"/>
       <c r="O90" s="70"/>
       <c r="P90" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q90" s="130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S90" s="119"/>
     </row>
@@ -18007,44 +17987,44 @@
       <c r="B91" s="118"/>
       <c r="C91" s="71"/>
       <c r="D91" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="E91" s="72" t="s">
-        <v>130</v>
-      </c>
       <c r="F91" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="G91" s="72" t="s">
         <v>340</v>
-      </c>
-      <c r="G91" s="72" t="s">
-        <v>341</v>
       </c>
       <c r="H91" s="261" t="s">
         <v>58</v>
       </c>
       <c r="I91" s="261" t="s">
+        <v>341</v>
+      </c>
+      <c r="J91" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="K91" s="259" t="s">
         <v>342</v>
       </c>
-      <c r="J91" s="72" t="s">
+      <c r="L91" s="72" t="s">
         <v>131</v>
-      </c>
-      <c r="K91" s="259" t="s">
-        <v>343</v>
-      </c>
-      <c r="L91" s="72" t="s">
-        <v>132</v>
       </c>
       <c r="M91" s="72"/>
       <c r="N91" s="72" t="s">
         <v>46</v>
       </c>
       <c r="O91" s="131" t="s">
+        <v>132</v>
+      </c>
+      <c r="P91" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="P91" s="132" t="s">
+      <c r="Q91" s="133" t="s">
         <v>134</v>
-      </c>
-      <c r="Q91" s="133" t="s">
-        <v>135</v>
       </c>
       <c r="S91" s="119"/>
     </row>
@@ -18058,15 +18038,15 @@
         <v>1002709036002</v>
       </c>
       <c r="F92" s="149" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G92" s="149" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H92" s="149"/>
       <c r="I92" s="149"/>
       <c r="J92" s="150" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K92" s="147"/>
       <c r="L92" s="147"/>
@@ -18089,21 +18069,21 @@
       <c r="B93" s="118"/>
       <c r="C93" s="76"/>
       <c r="D93" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E93" s="137">
         <v>1002709036003</v>
       </c>
       <c r="F93" s="78" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G93" s="79" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
       <c r="J93" s="138" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K93" s="78"/>
       <c r="L93" s="80"/>
@@ -18126,21 +18106,21 @@
       <c r="B94" s="118"/>
       <c r="C94" s="9"/>
       <c r="D94" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E94" s="134">
         <v>1002709036004</v>
       </c>
       <c r="F94" s="83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H94" s="74"/>
       <c r="I94" s="74"/>
       <c r="J94" s="135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K94" s="73"/>
       <c r="L94" s="73"/>
@@ -18163,21 +18143,21 @@
       <c r="B95" s="118"/>
       <c r="C95" s="76"/>
       <c r="D95" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E95" s="141">
         <v>1002709036005</v>
       </c>
       <c r="F95" s="85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G95" s="86" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H95" s="86"/>
       <c r="I95" s="86"/>
       <c r="J95" s="142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K95" s="87"/>
       <c r="L95" s="87"/>
@@ -18198,8 +18178,8 @@
     </row>
     <row r="96" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B96" s="118"/>
-      <c r="C96" s="279" t="s">
-        <v>141</v>
+      <c r="C96" s="266" t="s">
+        <v>140</v>
       </c>
       <c r="D96" s="294"/>
       <c r="E96" s="83"/>
@@ -18220,13 +18200,13 @@
     <row r="97" spans="2:19" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B97" s="118"/>
       <c r="N97" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O97" s="265" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P97" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S97" s="119"/>
     </row>
@@ -18296,7 +18276,7 @@
     <row r="106" spans="2:19" s="1" customFormat="1" ht="12.75">
       <c r="D106" s="122"/>
       <c r="G106" s="249" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H106" s="247"/>
       <c r="I106" s="247"/>
@@ -18314,7 +18294,7 @@
     <row r="108" spans="2:19" s="1" customFormat="1" ht="52.5" customHeight="1">
       <c r="D108" s="122"/>
       <c r="G108" s="250" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H108" s="99"/>
       <c r="I108" s="22"/>
@@ -18332,7 +18312,7 @@
     <row r="110" spans="2:19" s="1" customFormat="1" ht="49.5" customHeight="1">
       <c r="D110" s="122"/>
       <c r="G110" s="250" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H110" s="99"/>
       <c r="I110" s="22"/>
@@ -18350,7 +18330,7 @@
     <row r="112" spans="2:19" s="1" customFormat="1" ht="55.5" customHeight="1">
       <c r="D112" s="122"/>
       <c r="G112" s="250" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H112" s="99"/>
       <c r="I112" s="22"/>
@@ -18368,7 +18348,7 @@
     <row r="114" spans="4:11" s="1" customFormat="1" ht="59.25" customHeight="1">
       <c r="D114" s="122"/>
       <c r="G114" s="250" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H114" s="99"/>
       <c r="I114" s="22"/>
@@ -18386,10 +18366,10 @@
     <row r="116" spans="4:11" s="1" customFormat="1" ht="65.25" customHeight="1">
       <c r="D116" s="122"/>
       <c r="G116" s="250" t="s">
+        <v>302</v>
+      </c>
+      <c r="H116" s="251" t="s">
         <v>303</v>
-      </c>
-      <c r="H116" s="251" t="s">
-        <v>304</v>
       </c>
       <c r="I116" s="22"/>
       <c r="J116" s="12"/>
@@ -18408,10 +18388,10 @@
       <c r="G118" s="250"/>
       <c r="H118" s="252"/>
       <c r="I118" s="161" t="s">
+        <v>304</v>
+      </c>
+      <c r="J118" s="101" t="s">
         <v>305</v>
-      </c>
-      <c r="J118" s="101" t="s">
-        <v>306</v>
       </c>
       <c r="K118" s="13"/>
     </row>

--- a/Doc/prototype/ECS-ItmeMaster-JD-Prototype.xlsx
+++ b/Doc/prototype/ECS-ItmeMaster-JD-Prototype.xlsx
@@ -834,7 +834,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="354">
   <si>
     <r>
       <rPr>
@@ -3412,13 +3412,6 @@
   </si>
   <si>
     <t>{product_info}.sell_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{product_info}.unit_price</t>
-  </si>
-  <si>
-    <t>{product_info}.jd_price</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3993,6 +3986,18 @@
       </rPr>
       <t>认开壳</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{product_info}.unit_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{product_info}.jd_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充所有SKU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4726,7 +4731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5518,6 +5523,48 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5527,9 +5574,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5555,42 +5599,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6549,7 +6557,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6569,7 +6577,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6604,7 +6612,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6624,7 +6632,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6659,7 +6667,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6679,7 +6687,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6714,7 +6722,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6734,7 +6742,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6769,7 +6777,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6789,7 +6797,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6824,7 +6832,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6844,7 +6852,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6879,7 +6887,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6899,7 +6907,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6934,7 +6942,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6954,7 +6962,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -6989,7 +6997,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7009,7 +7017,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7096,7 +7104,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7116,7 +7124,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7151,7 +7159,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7171,7 +7179,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7206,7 +7214,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7226,7 +7234,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7617,7 +7625,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7637,7 +7645,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7748,7 +7756,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7768,7 +7776,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7841,7 +7849,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7861,7 +7869,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -7896,7 +7904,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7916,7 +7924,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8349,7 +8357,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8369,7 +8377,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8480,7 +8488,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8500,7 +8508,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -8649,7 +8657,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8669,7 +8677,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10681,7 +10689,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10701,7 +10709,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10736,7 +10744,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10756,7 +10764,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10791,7 +10799,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10811,7 +10819,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10846,7 +10854,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10866,7 +10874,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10901,7 +10909,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10921,7 +10929,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11327,7 +11335,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11347,7 +11355,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11619,7 +11627,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11639,7 +11647,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11674,7 +11682,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11694,7 +11702,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11729,7 +11737,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11749,7 +11757,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -11784,7 +11792,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11804,7 +11812,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -12124,7 +12132,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -12144,7 +12152,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -14790,10 +14798,10 @@
         <v>155</v>
       </c>
       <c r="Z6" s="169"/>
-      <c r="AA6" s="282"/>
-      <c r="AB6" s="282"/>
-      <c r="AC6" s="282"/>
-      <c r="AD6" s="283"/>
+      <c r="AA6" s="269"/>
+      <c r="AB6" s="269"/>
+      <c r="AC6" s="269"/>
+      <c r="AD6" s="270"/>
     </row>
     <row r="7" spans="1:183" ht="14.25">
       <c r="B7" s="9"/>
@@ -14853,11 +14861,11 @@
       <c r="P8" s="180" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="289" t="s">
+      <c r="Q8" s="277" t="s">
         <v>294</v>
       </c>
-      <c r="R8" s="290"/>
-      <c r="S8" s="291"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="279"/>
       <c r="V8" s="12"/>
       <c r="W8" s="13"/>
       <c r="X8" s="12"/>
@@ -14865,10 +14873,10 @@
       <c r="Z8" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="AA8" s="284" t="s">
+      <c r="AA8" s="271" t="s">
         <v>161</v>
       </c>
-      <c r="AB8" s="284"/>
+      <c r="AB8" s="271"/>
       <c r="AC8" s="174" t="s">
         <v>162</v>
       </c>
@@ -14903,10 +14911,10 @@
       <c r="Z9" s="181" t="s">
         <v>167</v>
       </c>
-      <c r="AA9" s="270" t="s">
+      <c r="AA9" s="272" t="s">
         <v>168</v>
       </c>
-      <c r="AB9" s="270"/>
+      <c r="AB9" s="272"/>
       <c r="AC9" s="182" t="s">
         <v>169</v>
       </c>
@@ -14945,10 +14953,10 @@
       <c r="Z10" s="185" t="s">
         <v>167</v>
       </c>
-      <c r="AA10" s="285" t="s">
+      <c r="AA10" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="AB10" s="285"/>
+      <c r="AB10" s="273"/>
       <c r="AC10" s="186" t="s">
         <v>175</v>
       </c>
@@ -15029,10 +15037,10 @@
       <c r="I13" s="160" t="s">
         <v>178</v>
       </c>
-      <c r="J13" s="280" t="s">
+      <c r="J13" s="267" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="281"/>
+      <c r="K13" s="268"/>
       <c r="L13" s="245" t="s">
         <v>295</v>
       </c>
@@ -15048,11 +15056,11 @@
       <c r="P13" s="160" t="s">
         <v>183</v>
       </c>
-      <c r="Q13" s="286" t="s">
+      <c r="Q13" s="274" t="s">
         <v>184</v>
       </c>
-      <c r="R13" s="287"/>
-      <c r="S13" s="288"/>
+      <c r="R13" s="275"/>
+      <c r="S13" s="276"/>
       <c r="W13" s="13"/>
       <c r="X13" s="12"/>
       <c r="Y13" s="9"/>
@@ -15645,31 +15653,31 @@
       <c r="W20" s="12"/>
     </row>
     <row r="21" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B21" s="267" t="s">
+      <c r="B21" s="281" t="s">
         <v>225</v>
       </c>
       <c r="C21" s="11"/>
-      <c r="D21" s="270" t="s">
+      <c r="D21" s="272" t="s">
         <v>226</v>
       </c>
-      <c r="E21" s="270" t="s">
+      <c r="E21" s="272" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="270" t="s">
+      <c r="F21" s="272" t="s">
         <v>228</v>
       </c>
-      <c r="G21" s="270" t="s">
+      <c r="G21" s="272" t="s">
         <v>229</v>
       </c>
-      <c r="H21" s="273" t="s">
+      <c r="H21" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="I21" s="273" t="s">
+      <c r="I21" s="286" t="s">
         <v>230</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
-      <c r="L21" s="273" t="s">
+      <c r="L21" s="286" t="s">
         <v>231</v>
       </c>
       <c r="M21" s="210" t="s">
@@ -15688,17 +15696,17 @@
       <c r="W21" s="12"/>
     </row>
     <row r="22" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B22" s="268"/>
+      <c r="B22" s="282"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="271"/>
-      <c r="E22" s="271"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
-      <c r="H22" s="274"/>
-      <c r="I22" s="274"/>
+      <c r="D22" s="284"/>
+      <c r="E22" s="284"/>
+      <c r="F22" s="284"/>
+      <c r="G22" s="284"/>
+      <c r="H22" s="287"/>
+      <c r="I22" s="287"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="274"/>
+      <c r="L22" s="287"/>
       <c r="M22" s="210">
         <v>36</v>
       </c>
@@ -15715,12 +15723,12 @@
       <c r="W22" s="12"/>
     </row>
     <row r="23" spans="1:183" ht="14.25" customHeight="1">
-      <c r="B23" s="269"/>
+      <c r="B23" s="283"/>
       <c r="C23" s="214"/>
-      <c r="D23" s="272"/>
-      <c r="E23" s="272"/>
-      <c r="F23" s="272"/>
-      <c r="G23" s="272"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="285"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="285"/>
       <c r="H23" s="215" t="s">
         <v>236</v>
       </c>
@@ -16061,11 +16069,11 @@
       <c r="AD35" s="163"/>
     </row>
     <row r="36" spans="5:30" ht="14.25">
-      <c r="F36" s="275" t="s">
-        <v>348</v>
-      </c>
-      <c r="G36" s="276"/>
-      <c r="H36" s="276"/>
+      <c r="F36" s="288" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36" s="289"/>
+      <c r="H36" s="289"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
       <c r="L36" s="13"/>
@@ -16076,9 +16084,9 @@
       <c r="P36" s="235" t="s">
         <v>279</v>
       </c>
-      <c r="Q36" s="277"/>
-      <c r="R36" s="278"/>
-      <c r="S36" s="279"/>
+      <c r="Q36" s="290"/>
+      <c r="R36" s="291"/>
+      <c r="S36" s="292"/>
       <c r="T36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="12"/>
@@ -16134,9 +16142,9 @@
       <c r="P38" s="235" t="s">
         <v>287</v>
       </c>
-      <c r="Q38" s="277"/>
-      <c r="R38" s="278"/>
-      <c r="S38" s="279"/>
+      <c r="Q38" s="290"/>
+      <c r="R38" s="291"/>
+      <c r="S38" s="292"/>
       <c r="T38" s="13"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="181" t="s">
@@ -16190,21 +16198,21 @@
       <c r="I40" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="J40" s="266" t="s">
+      <c r="J40" s="280" t="s">
         <v>292</v>
       </c>
-      <c r="K40" s="266"/>
+      <c r="K40" s="280"/>
       <c r="L40" s="13"/>
       <c r="N40" s="9"/>
       <c r="O40" s="12"/>
-      <c r="P40" s="266" t="s">
+      <c r="P40" s="280" t="s">
         <v>291</v>
       </c>
-      <c r="Q40" s="266"/>
-      <c r="R40" s="266" t="s">
+      <c r="Q40" s="280"/>
+      <c r="R40" s="280" t="s">
         <v>292</v>
       </c>
-      <c r="S40" s="266"/>
+      <c r="S40" s="280"/>
       <c r="T40" s="13"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="12"/>
@@ -16249,13 +16257,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q8:S8"/>
     <mergeCell ref="P40:Q40"/>
     <mergeCell ref="R40:S40"/>
     <mergeCell ref="J40:K40"/>
@@ -16270,6 +16271,13 @@
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="Q36:S36"/>
     <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q8:S8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16282,8 +16290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16307,12 +16315,12 @@
       <c r="B2" s="116"/>
       <c r="C2" s="117"/>
       <c r="D2" s="144" t="s">
-        <v>318</v>
-      </c>
-      <c r="E2" s="292" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="293" t="s">
         <v>105</v>
       </c>
-      <c r="F2" s="293"/>
+      <c r="F2" s="294"/>
       <c r="G2" s="122"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="9" customHeight="1">
@@ -16380,17 +16388,17 @@
       <c r="B6" s="118"/>
       <c r="C6" s="9"/>
       <c r="D6" s="113" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>108</v>
       </c>
       <c r="F6" s="67"/>
       <c r="G6" s="253" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H6" s="263" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -16407,19 +16415,19 @@
       <c r="B7" s="118"/>
       <c r="C7" s="9"/>
       <c r="D7" s="113" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E7" s="22" t="s">
         <v>107</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G7" s="253" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H7" s="264" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I7" s="241"/>
       <c r="J7" s="12"/>
@@ -16457,14 +16465,14 @@
       <c r="B9" s="118"/>
       <c r="C9" s="9"/>
       <c r="D9" s="113" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="28" t="s">
         <v>307</v>
       </c>
       <c r="G9" s="258" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -16623,14 +16631,14 @@
       <c r="B18" s="118"/>
       <c r="C18" s="9"/>
       <c r="D18" s="113" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="62"/>
@@ -16647,7 +16655,7 @@
       <c r="B19" s="118"/>
       <c r="C19" s="9"/>
       <c r="D19" s="113" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>104</v>
@@ -16689,14 +16697,14 @@
       <c r="B21" s="118"/>
       <c r="C21" s="9"/>
       <c r="D21" s="113" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>145</v>
       </c>
       <c r="F21" s="67"/>
       <c r="G21" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="25"/>
@@ -16751,7 +16759,7 @@
       <c r="B24" s="118"/>
       <c r="C24" s="9"/>
       <c r="D24" s="113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -17105,7 +17113,7 @@
       <c r="B44" s="118"/>
       <c r="C44" s="9"/>
       <c r="D44" s="184" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E44" s="260">
         <v>1123</v>
@@ -17141,22 +17149,24 @@
       <c r="P45" s="13"/>
       <c r="R45" s="127"/>
     </row>
-    <row r="46" spans="2:18" s="1" customFormat="1" ht="12.75">
+    <row r="46" spans="2:18" s="1" customFormat="1" ht="14.25">
       <c r="B46" s="118"/>
       <c r="C46" s="9"/>
       <c r="D46" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="12" t="s">
-        <v>311</v>
+      <c r="E46" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="F46" s="266" t="s">
+        <v>353</v>
       </c>
       <c r="G46" s="113" t="s">
         <v>117</v>
       </c>
       <c r="H46" s="22"/>
       <c r="I46" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -17185,22 +17195,24 @@
       <c r="P47" s="13"/>
       <c r="R47" s="127"/>
     </row>
-    <row r="48" spans="2:18" s="1" customFormat="1" ht="12.75">
+    <row r="48" spans="2:18" s="1" customFormat="1" ht="14.25">
       <c r="B48" s="118"/>
       <c r="C48" s="9"/>
       <c r="D48" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="12" t="s">
-        <v>310</v>
+      <c r="E48" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="266" t="s">
+        <v>353</v>
       </c>
       <c r="G48" s="113" t="s">
         <v>118</v>
       </c>
       <c r="H48" s="22"/>
       <c r="I48" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J48" s="12"/>
       <c r="K48" s="12"/>
@@ -17242,7 +17254,7 @@
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J50" s="12"/>
       <c r="K50" s="12"/>
@@ -17282,7 +17294,7 @@
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
@@ -17332,7 +17344,7 @@
     <row r="55" spans="2:18" s="1" customFormat="1" ht="12.75">
       <c r="B55" s="118"/>
       <c r="C55" s="58" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D55" s="255"/>
       <c r="E55" s="256"/>
@@ -17371,7 +17383,7 @@
       <c r="B57" s="118"/>
       <c r="C57" s="9"/>
       <c r="D57" s="184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -17427,10 +17439,10 @@
       <c r="B60" s="118"/>
       <c r="C60" s="9"/>
       <c r="D60" s="184" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F60" s="262"/>
       <c r="G60" s="177"/>
@@ -17517,7 +17529,7 @@
       <c r="G65" s="28"/>
       <c r="H65" s="12"/>
       <c r="I65" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
@@ -17694,7 +17706,7 @@
       <c r="B75" s="118"/>
       <c r="C75" s="9"/>
       <c r="D75" s="113" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E75" s="145" t="s">
         <v>142</v>
@@ -17815,7 +17827,7 @@
       <c r="G81" s="28"/>
       <c r="H81" s="12"/>
       <c r="I81" s="67" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
@@ -17993,22 +18005,22 @@
         <v>129</v>
       </c>
       <c r="F91" s="72" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G91" s="72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H91" s="261" t="s">
         <v>58</v>
       </c>
       <c r="I91" s="261" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J91" s="72" t="s">
         <v>130</v>
       </c>
       <c r="K91" s="259" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="L91" s="72" t="s">
         <v>131</v>
@@ -18038,10 +18050,10 @@
         <v>1002709036002</v>
       </c>
       <c r="F92" s="149" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G92" s="149" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H92" s="149"/>
       <c r="I92" s="149"/>
@@ -18075,10 +18087,10 @@
         <v>1002709036003</v>
       </c>
       <c r="F93" s="78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G93" s="79" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H93" s="79"/>
       <c r="I93" s="79"/>
@@ -18112,10 +18124,10 @@
         <v>1002709036004</v>
       </c>
       <c r="F94" s="83" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H94" s="74"/>
       <c r="I94" s="74"/>
@@ -18149,10 +18161,10 @@
         <v>1002709036005</v>
       </c>
       <c r="F95" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" s="86" t="s">
         <v>335</v>
-      </c>
-      <c r="G95" s="86" t="s">
-        <v>337</v>
       </c>
       <c r="H95" s="86"/>
       <c r="I95" s="86"/>
@@ -18178,10 +18190,10 @@
     </row>
     <row r="96" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="B96" s="118"/>
-      <c r="C96" s="266" t="s">
+      <c r="C96" s="280" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="294"/>
+      <c r="D96" s="295"/>
       <c r="E96" s="83"/>
       <c r="F96" s="74"/>
       <c r="G96" s="74"/>
@@ -18203,7 +18215,7 @@
         <v>144</v>
       </c>
       <c r="O97" s="265" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="P97" s="32" t="s">
         <v>141</v>
